--- a/階層化フォーム使い方.xlsx
+++ b/階層化フォーム使い方.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E3CF12-921E-4378-B4E8-75C4CD091913}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A752B8E9-372F-433F-B3E8-47E4676CE314}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -12979,6 +12980,267 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>244532</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>129963</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33DEF5AB-583A-4D36-B2CD-B754ED640A47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="510540"/>
+          <a:ext cx="7986452" cy="4877223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{141AF6ED-AE45-4D57-8D83-9B5BA86F6E78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7231380" y="510540"/>
+          <a:ext cx="1021080" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形: 角を丸くする 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2F703F1-5A9E-4A44-9B9A-5AA3BA3054A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="594360" y="769620"/>
+          <a:ext cx="4610100" cy="746760"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E4E5FA3-DD5F-4CC6-B1F4-FA1EFBFCA1F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6256020" y="4137660"/>
+          <a:ext cx="571500" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -13286,9 +13548,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD184EDE-82F6-4857-8A42-4D6C54342224}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -13299,4 +13562,21 @@
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B8AC0C-B542-4F84-ACFE-6CFB5EDC672A}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/階層化フォーム使い方.xlsx
+++ b/階層化フォーム使い方.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A752B8E9-372F-433F-B3E8-47E4676CE314}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B889EFAA-5B63-4602-B00E-DC736863C7A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,14 +87,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>125506</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>319470</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>98612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>17033</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>210996</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>78890</xdr:rowOff>
     </xdr:to>
@@ -126,8 +126,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2150249" y="1013012"/>
-          <a:ext cx="10015241" cy="6381078"/>
+          <a:off x="4309579" y="1040721"/>
+          <a:ext cx="9866799" cy="6575042"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -148,14 +148,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>387272</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581235</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>219937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>638373</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>167318</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>105227</xdr:rowOff>
     </xdr:to>
@@ -172,8 +172,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="8296273">
-          <a:off x="1731978" y="1152266"/>
-          <a:ext cx="251101" cy="817620"/>
+          <a:off x="3906326" y="1162046"/>
+          <a:ext cx="251101" cy="827399"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst>
@@ -213,14 +213,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>179296</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>373259</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>17930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>125506</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>319470</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>26895</xdr:rowOff>
     </xdr:to>
@@ -237,8 +237,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="179296" y="950259"/>
-          <a:ext cx="1963269" cy="475130"/>
+          <a:off x="2368314" y="960039"/>
+          <a:ext cx="1941265" cy="480020"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -287,14 +287,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>139872</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333835</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>10136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>285139</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>479103</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>28155</xdr:rowOff>
     </xdr:to>
@@ -311,8 +311,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="4545156">
-          <a:off x="1767837" y="2290783"/>
-          <a:ext cx="251101" cy="817620"/>
+          <a:off x="3937296" y="2322566"/>
+          <a:ext cx="253546" cy="810286"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst>
@@ -352,14 +352,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>170332</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>364295</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>107575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>116542</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>310506</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>8965</xdr:rowOff>
     </xdr:to>
@@ -376,8 +376,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="170332" y="2671481"/>
-          <a:ext cx="1963269" cy="833719"/>
+          <a:off x="2359350" y="2698375"/>
+          <a:ext cx="1941265" cy="843499"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -434,14 +434,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>130908</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>324871</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>72889</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>276175</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>470139</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>90908</xdr:rowOff>
     </xdr:to>
@@ -458,8 +458,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="4545156">
-          <a:off x="1758873" y="4218195"/>
-          <a:ext cx="251101" cy="817620"/>
+          <a:off x="3928332" y="4269537"/>
+          <a:ext cx="253546" cy="810286"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst>
@@ -499,14 +499,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>161368</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355331</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>170328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>107578</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>301542</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>116541</xdr:rowOff>
     </xdr:to>
@@ -523,8 +523,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="161368" y="4598893"/>
-          <a:ext cx="1963269" cy="878542"/>
+          <a:off x="2350386" y="4645346"/>
+          <a:ext cx="1941265" cy="888322"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -573,14 +573,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>611387</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>140332</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>224119</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190135</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>384098</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>229563</xdr:rowOff>
     </xdr:to>
@@ -597,8 +597,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="12546383">
-          <a:off x="4645505" y="923366"/>
-          <a:ext cx="251101" cy="704691"/>
+          <a:off x="6790514" y="930701"/>
+          <a:ext cx="243766" cy="712026"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst>
@@ -638,14 +638,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>170329</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>364292</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>34687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>663388</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>192334</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>213982</xdr:rowOff>
     </xdr:to>
@@ -662,8 +662,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4204447" y="267769"/>
-          <a:ext cx="2510117" cy="878542"/>
+          <a:off x="6349456" y="270214"/>
+          <a:ext cx="2488114" cy="885877"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -704,14 +704,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>227592</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>421555</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>37262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>492660</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>21605</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>131093</xdr:rowOff>
     </xdr:to>
@@ -728,8 +728,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="21229760">
-          <a:off x="5626906" y="6666662"/>
-          <a:ext cx="265068" cy="1008231"/>
+          <a:off x="7736755" y="6867553"/>
+          <a:ext cx="265068" cy="1035940"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst>
@@ -769,14 +769,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>511628</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>40573</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>32658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>329773</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523736</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>211953</xdr:rowOff>
     </xdr:to>
@@ -793,8 +793,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5236028" y="7576458"/>
-          <a:ext cx="2517802" cy="865095"/>
+          <a:off x="7355773" y="7805058"/>
+          <a:ext cx="2478218" cy="885877"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -835,14 +835,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>559725</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88671</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>142591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>576055</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>105000</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>167653</xdr:rowOff>
     </xdr:to>
@@ -859,8 +859,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="3079800">
-          <a:off x="3478173" y="7239000"/>
-          <a:ext cx="253662" cy="691244"/>
+          <a:off x="5619195" y="7469085"/>
+          <a:ext cx="260589" cy="681348"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst>
@@ -900,14 +900,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>261257</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>455220</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>28283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>79402</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>273365</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>195943</xdr:rowOff>
     </xdr:to>
@@ -924,8 +924,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1611086" y="7572083"/>
-          <a:ext cx="2517802" cy="1082060"/>
+          <a:off x="3780311" y="7800683"/>
+          <a:ext cx="2478218" cy="1109769"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -966,14 +966,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>337692</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>531656</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>200588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>548304</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>77249</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>151014</xdr:rowOff>
     </xdr:to>
@@ -990,8 +990,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="15402830">
-          <a:off x="6765171" y="761738"/>
-          <a:ext cx="179026" cy="885526"/>
+          <a:off x="8856712" y="797859"/>
+          <a:ext cx="185953" cy="875630"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst>
@@ -1031,14 +1031,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>195942</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>389906</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>141513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>664030</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>192975</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>56444</xdr:rowOff>
     </xdr:to>
@@ -1055,8 +1055,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6945085" y="370113"/>
-          <a:ext cx="1817916" cy="829331"/>
+          <a:off x="9035142" y="377040"/>
+          <a:ext cx="1798124" cy="857040"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1122,14 +1122,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>185056</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>379019</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>48189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>395668</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>589632</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>227215</xdr:rowOff>
     </xdr:to>
@@ -1146,8 +1146,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="13963120">
-          <a:off x="9312192" y="609339"/>
-          <a:ext cx="179026" cy="885526"/>
+          <a:off x="11367613" y="641995"/>
+          <a:ext cx="179026" cy="875631"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst>
@@ -1187,14 +1187,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>652906</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>181851</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>87086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>359229</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>553192</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>89103</xdr:rowOff>
     </xdr:to>
@@ -1211,8 +1211,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9426792" y="315686"/>
-          <a:ext cx="3080894" cy="687817"/>
+          <a:off x="11487160" y="322613"/>
+          <a:ext cx="3031414" cy="708599"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1261,14 +1261,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>81829</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>275792</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>217714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>335491</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>529454</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>223158</xdr:rowOff>
     </xdr:to>
@@ -1285,8 +1285,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="21229760">
-          <a:off x="8855715" y="6847114"/>
-          <a:ext cx="253662" cy="691244"/>
+          <a:off x="10916083" y="7048005"/>
+          <a:ext cx="253662" cy="712026"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst>
@@ -1326,14 +1326,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>337456</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>531419</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>126255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>348341</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>542305</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
@@ -1350,8 +1350,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8436427" y="7441455"/>
-          <a:ext cx="2710543" cy="635746"/>
+          <a:off x="10506692" y="7663128"/>
+          <a:ext cx="2670958" cy="656528"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1392,14 +1392,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>364024</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>557987</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>182727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>506462</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>35407</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>45103</xdr:rowOff>
     </xdr:to>
@@ -1416,8 +1416,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="21229760">
-          <a:off x="5763338" y="3383127"/>
-          <a:ext cx="142438" cy="1919776"/>
+          <a:off x="7873187" y="3480109"/>
+          <a:ext cx="142438" cy="1982121"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst>
@@ -1463,14 +1463,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>585270</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114215</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>152504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>487960</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>16905</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>103487</xdr:rowOff>
     </xdr:to>
@@ -1487,8 +1487,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16470303">
-          <a:off x="4496309" y="4873836"/>
-          <a:ext cx="179583" cy="1252519"/>
+          <a:off x="6622486" y="5046524"/>
+          <a:ext cx="186511" cy="1232726"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst>
@@ -1534,14 +1534,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>446823</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>640786</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>214750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>626406</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>155351</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>95669</xdr:rowOff>
     </xdr:to>
@@ -1558,8 +1558,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="19953180">
-          <a:off x="5171223" y="4329550"/>
-          <a:ext cx="179583" cy="1252519"/>
+          <a:off x="7290968" y="4454241"/>
+          <a:ext cx="179583" cy="1294083"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst>
@@ -1605,14 +1605,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>653142</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>182087</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>93368</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>522514</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>51460</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
@@ -1629,8 +1629,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4702628" y="5122568"/>
-          <a:ext cx="1894115" cy="875461"/>
+          <a:off x="6832269" y="5274968"/>
+          <a:ext cx="1864427" cy="903170"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1681,6 +1681,4486 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
             <a:t>に飛ぶ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>193963</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>264553</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>218133</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17299625-A759-4AC6-BDB2-BABE8F15B8F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2854036" y="17429018"/>
+          <a:ext cx="12040917" cy="7755006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>193963</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>274077</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>27628</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A8AE38-0618-49EE-8E84-85873DF2595D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2854036" y="10363200"/>
+          <a:ext cx="12050441" cy="7800028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>193963</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>255030</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>37152</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1645CD1-D7F1-4172-B494-CC62983C938F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2854036" y="30618545"/>
+          <a:ext cx="12031394" cy="7809552"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>193963</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>264553</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>56200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D371BA-38EB-4E78-98E0-F660013C4037}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2854036" y="33680400"/>
+          <a:ext cx="12040917" cy="7828600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>193963</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>255030</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>18105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24BED3B9-7DCF-4BF8-A6DB-C28F3AF6BD9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2854036" y="48754145"/>
+          <a:ext cx="12031394" cy="7790505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>193963</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>216934</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>218134</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1119172-A35A-481C-8BDD-D193235E7D9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2854036" y="49931782"/>
+          <a:ext cx="11993298" cy="7755006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>193963</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>255030</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>37152</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A4B249-1368-418A-9198-34A49B85E50E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2854036" y="66654218"/>
+          <a:ext cx="12031394" cy="7809552"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>193963</xdr:colOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>302649</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>8581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A588D638-4623-42FF-AD5A-1D2E0ACD4679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2854036" y="65947636"/>
+          <a:ext cx="12079013" cy="7780981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>293900</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>199209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>456281</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>214783</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="二等辺三角形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A7FE3E6-FD76-4686-824B-8C0EC7CEBE08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3729425">
+          <a:off x="2577104" y="11216369"/>
+          <a:ext cx="251101" cy="827399"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>401782</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>96982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>611229</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="四角形: 角を丸くする 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26AC633F-068C-4AB1-ACBC-FD9C30CFD499}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="401782" y="11166764"/>
+          <a:ext cx="2204502" cy="978785"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>起動中の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>VBProject</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>一覧を表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>177357</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>322625</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>18019</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="二等辺三角形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF8C5C8-9177-4A50-916F-F15FE670F036}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="4545156">
+          <a:off x="2450782" y="11026939"/>
+          <a:ext cx="253546" cy="810286"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>97439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>154028</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>226736</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="四角形: 角を丸くする 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89C704C0-8864-4979-A088-39A015622F74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="554182" y="12580384"/>
+          <a:ext cx="2259919" cy="835879"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>選択中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>VBProject</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>モジュール一覧を表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>274804</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>217141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>518570</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>222585</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="二等辺三角形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038F06F5-FA6B-4EF2-86BF-0D2E3CC22D9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="12546383">
+          <a:off x="5594949" y="10344814"/>
+          <a:ext cx="243766" cy="712026"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>498764</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>27709</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>326805</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>207004</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="四角形: 角を丸くする 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14614DA9-F154-4242-94D9-5C5DC3C8CE29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5153891" y="9684327"/>
+          <a:ext cx="2488114" cy="885877"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>選択中モジュールの中の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>プロシージャ一覧を表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>297855</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>124690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>562923</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>218521</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="二等辺三角形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB992A9-8E67-4063-9046-A11BFD2090F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="21229760">
+          <a:off x="6283019" y="17318181"/>
+          <a:ext cx="265068" cy="1035940"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581892</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>120086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>526473</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>63854</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="四角形: 角を丸くする 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F0A433-EE8E-4B5B-AAA4-FD559C0533FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5902037" y="18255686"/>
+          <a:ext cx="2604654" cy="885877"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>選択プロシージャを使用しているプロシージャ一覧を表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>298554</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>55419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552216</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>60863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="二等辺三角形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5CED401-B097-482D-8926-7E3DD50E32B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="21229760">
+          <a:off x="9608809" y="17719964"/>
+          <a:ext cx="253662" cy="712026"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>199487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>415637</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>149433</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="四角形: 角を丸くする 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB52114C-4B77-4540-9EDB-F7B91E95AEA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9199418" y="18335087"/>
+          <a:ext cx="3186546" cy="656528"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>選択中プロシージャのコードを表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>631063</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>180108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219707</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>185552</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="二等辺三角形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A5E896-D8A8-4DB6-AD16-6A0D3380FD92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="21229760">
+          <a:off x="11271354" y="27972326"/>
+          <a:ext cx="253662" cy="712026"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>221672</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>88649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>41563</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>38596</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="四角形: 角を丸くする 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02294948-CDD2-465A-8FC4-0919C6C36D8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10861963" y="28587449"/>
+          <a:ext cx="3144982" cy="656529"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>選択中プロシージャのコードを表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>355293</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>115769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>606843</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>156316</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="二等辺三角形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C798520A-C29A-46C2-BFB5-1838DB726F77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="12546383">
+          <a:off x="11660602" y="20371114"/>
+          <a:ext cx="251550" cy="1689238"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>645459</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>180107</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="四角形: 角を丸くする 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{000EE0EA-A738-4255-B400-3B60FD06F0F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11595100" y="18859500"/>
+          <a:ext cx="2512359" cy="1208807"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>選択中プロシージャコードの使用プロシージャを含めた</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>階層構造</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>を表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>568037</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>193962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>138546</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>124689</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C710160F-EE40-4D81-83EA-BCDCAA502E66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1898073" y="9615053"/>
+          <a:ext cx="2895600" cy="637309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="soft" dir="t">
+              <a:rot lat="0" lon="0" rev="15600000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d extrusionH="57150" prstMaterial="softEdge">
+            <a:bevelT w="25400" h="38100"/>
+          </a:sp3d>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1" cap="none" spc="0">
+              <a:ln/>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>各種表示項目</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>180107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>235528</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>110834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{712A7DCB-73F9-44D4-8A56-DD6AC061FD02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1995055" y="19964398"/>
+          <a:ext cx="2895600" cy="637309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="soft" dir="t">
+              <a:rot lat="0" lon="0" rev="15600000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d extrusionH="57150" prstMaterial="softEdge">
+            <a:bevelT w="25400" h="38100"/>
+          </a:sp3d>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1" cap="none" spc="0">
+              <a:ln/>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>階層表示切替</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>193963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>235527</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>124690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60C6279A-E85A-44B2-99BC-5BDF3159AF2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1995054" y="29870399"/>
+          <a:ext cx="5555673" cy="637309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="soft" dir="t">
+              <a:rot lat="0" lon="0" rev="15600000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d extrusionH="57150" prstMaterial="softEdge">
+            <a:bevelT w="25400" h="38100"/>
+          </a:sp3d>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1" cap="none" spc="0">
+              <a:ln/>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>外部参照プロシージャの表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>588508</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>187293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>175382</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>119838</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="二等辺三角形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B46575C-E4DF-4688-9D88-B2581E4B9DF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="12546383">
+          <a:off x="8568726" y="20442638"/>
+          <a:ext cx="251892" cy="1110182"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>214051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>471054</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>110835</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="四角形: 角を丸くする 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0E45F30-13E2-4884-8B9E-7FE973BBC7A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7772399" y="19998342"/>
+          <a:ext cx="2673928" cy="838893"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>「コード表示」「階層表示」の切り替えボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>626731</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>134554</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406877</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>178007</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="二等辺三角形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082AE173-50C5-44D1-9F5E-0EAA5D4C9FFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="14637481">
+          <a:off x="7692514" y="30101971"/>
+          <a:ext cx="278980" cy="1110182"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>637309</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>13855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>651164</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>49185</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="四角形: 角を丸くする 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9938CCEB-6D73-46BA-8993-5C8F08F66AF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7952509" y="30161346"/>
+          <a:ext cx="2673928" cy="506384"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>外部参照リスト表示ボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>45751</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>106914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>270780</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>70530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="二等辺三角形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B802F59-79D1-4269-B55E-FA5F6A0616E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19361331">
+          <a:off x="8025969" y="33316259"/>
+          <a:ext cx="225029" cy="1376780"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>318655</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>33232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>193964</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="四角形: 角を丸くする 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39D7C1E6-E01A-436D-86E9-2A2A6FB1FC8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8298873" y="34420214"/>
+          <a:ext cx="3200400" cy="1213677"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>選択中の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>VBProject</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>において、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>外部参照しているプロシージャ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>一覧を表示する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>124690</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>148408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>569854</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>191861</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="二等辺三角形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F00D67B2-C1CB-48B6-81CE-73563FC395F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="14637481">
+          <a:off x="8520509" y="39065862"/>
+          <a:ext cx="278980" cy="1110182"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>135268</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>63039</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="四角形: 角を丸くする 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B24F9B8-B3B2-468B-8B7D-F9137CA728E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8780504" y="38626473"/>
+          <a:ext cx="3259096" cy="1005148"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>表示されたプロシージャの全コードをクリップボードにコピーする</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609563</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>79171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>223524</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>11717</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="二等辺三角形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{989F504B-A982-42C5-8EF9-3D9BEBE6992B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="12907209">
+          <a:off x="9254799" y="42003026"/>
+          <a:ext cx="278980" cy="1110182"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>606323</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>76894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="四角形: 角を丸くする 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF6F93B8-041A-40D0-8AA7-887033DB2279}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9251559" y="41743745"/>
+          <a:ext cx="2261568" cy="728058"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>結果確認メッセージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>512619</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>193969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>83128</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>124696</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="テキスト ボックス 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDC8AF6F-C71A-4C49-B725-991958558A09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1842655" y="48006005"/>
+          <a:ext cx="5555673" cy="637309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="soft" dir="t">
+              <a:rot lat="0" lon="0" rev="15600000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d extrusionH="57150" prstMaterial="softEdge">
+            <a:bevelT w="25400" h="38100"/>
+          </a:sp3d>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1" cap="none" spc="0">
+              <a:ln/>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>プロシージャのコードコピー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>263200</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>176152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>542180</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>108698</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="二等辺三角形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5495A22-8640-4ADE-822D-3BA401B60B2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="9157044">
+          <a:off x="13563564" y="48223716"/>
+          <a:ext cx="278980" cy="1110182"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>27709</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>360219</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>132311</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="四角形: 角を丸くする 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9D5EAB0-56F2-4C15-9DAE-462D370A46F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11998036" y="47881309"/>
+          <a:ext cx="2992583" cy="769620"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>選択中プロシージャのコードを</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クリップボードにコピーする</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>474328</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>106846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>254474</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>150299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="二等辺三角形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A2AF571-1ADB-49FF-92CE-26A59FEC0A1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="14554043">
+          <a:off x="14190293" y="50329609"/>
+          <a:ext cx="278980" cy="1110182"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>429490</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>96983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>30985</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>118459</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="四角形: 角を丸くする 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1129FB2-24AF-4D7B-8A88-E07C78E83B1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14394872" y="50264292"/>
+          <a:ext cx="2261568" cy="728058"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>結果確認メッセージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>193964</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>110836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>374073</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>166255</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="右中かっこ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614F6047-2C9C-4790-857E-FBA0FC9540C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12829309" y="53340000"/>
+          <a:ext cx="845128" cy="2881746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 31284"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>110837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>211095</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>110836</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="四角形: 角を丸くする 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{194BEEB6-CFC6-431F-B552-24B7C44A9F84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13909963" y="54282110"/>
+          <a:ext cx="2261568" cy="942108"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ここに表示しているコードをコピーする</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>332473</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>51462</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>611453</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>219535</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="二等辺三角形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6790D2D4-B4FC-405E-BC82-168FF60C5B26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="9157044">
+          <a:off x="13632837" y="57284589"/>
+          <a:ext cx="278980" cy="1110182"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>96982</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>180109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>429492</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="四角形: 角を丸くする 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FD14E07-DB58-4663-BAE8-654694131BFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12067309" y="56942182"/>
+          <a:ext cx="2992583" cy="769620"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>選択中プロシージャの全コードを</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クリップボードにコピーする</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>193963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>13855</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>124690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="テキスト ボックス 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D4D1C38-0E45-4F25-B072-A94C151FF211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1330036" y="56720508"/>
+          <a:ext cx="5999019" cy="637309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="soft" dir="t">
+              <a:rot lat="0" lon="0" rev="15600000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d extrusionH="57150" prstMaterial="softEdge">
+            <a:bevelT w="25400" h="38100"/>
+          </a:sp3d>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1" cap="none" spc="0">
+              <a:ln/>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>プロシージャの全コードコピー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>346363</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>92990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>126509</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>136443</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="二等辺三角形 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96120590-E7F9-47B7-8F9D-9DADCD048A44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="14554043">
+          <a:off x="14062328" y="60914480"/>
+          <a:ext cx="278980" cy="1110182"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>301525</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>568039</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>104603</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="四角形: 角を丸くする 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E823175-A2EA-4A73-9FF0-E9F39EE20C01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14266907" y="60849163"/>
+          <a:ext cx="2261568" cy="728058"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>結果確認メッセージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>637308</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>124690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>13854</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="右中かっこ 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{440C27DB-40B9-4374-BADF-12931BBD8BFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11277599" y="58535454"/>
+          <a:ext cx="845128" cy="2479964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 31284"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="四角形: 角を丸くする 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19625DDE-212C-433A-9C70-68C9CD3609A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12427527" y="59352873"/>
+          <a:ext cx="3172691" cy="1011382"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ここに表示しているプロシージャの全部のコードをコピーする</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>637311</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>166255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>290946</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>96982</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="テキスト ボックス 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3B42719-382D-4221-9682-86E5E96E9369}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1967347" y="65878364"/>
+          <a:ext cx="2978726" cy="637309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="soft" dir="t">
+              <a:rot lat="0" lon="0" rev="15600000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d extrusionH="57150" prstMaterial="softEdge">
+            <a:bevelT w="25400" h="38100"/>
+          </a:sp3d>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1" cap="none" spc="0">
+              <a:ln/>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>コード内検索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>557955</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>158489</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>164297</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>91034</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="二等辺三角形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE74BD50-DF86-4322-AAEA-D8EB177D7452}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13310189">
+          <a:off x="11863264" y="66106125"/>
+          <a:ext cx="271360" cy="1110182"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>550905</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>124690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>21475</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="四角形: 角を丸くする 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40EAB992-499A-4AFE-AA5F-C53C715A856A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11856214" y="66072326"/>
+          <a:ext cx="1748950" cy="603367"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>検索文字入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>580184</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>26745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>213422</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>123218</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="二等辺三角形 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F41BDBD5-E60A-4308-9CCC-4C4E43BB1483}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13310189">
+          <a:off x="6565348" y="66209909"/>
+          <a:ext cx="298256" cy="1509636"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>69274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>471054</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>201586</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="四角形: 角を丸くする 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23936DF4-466F-41ED-A5C1-0DF52AA36087}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6650181" y="65781383"/>
+          <a:ext cx="2466109" cy="838894"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>検索で引っかかったプロシージャ一覧を表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>278661</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>8215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>627852</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>23805</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="二等辺三角形 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD2A37D9-47BF-4CC0-8E4A-92B3603447CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="15183297">
+          <a:off x="9637952" y="69051797"/>
+          <a:ext cx="251117" cy="3009264"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>235527</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>83128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>41563</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>215440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="四角形: 角を丸くする 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B63741-85A6-4814-A1E8-E0F49249CCAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10875818" y="69563673"/>
+          <a:ext cx="2466109" cy="838894"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>コード内で検索に引っかかった部分を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>赤く</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>544101</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>6090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>150443</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>174163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="二等辺三角形 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC0CA04-8252-4585-88B6-078D4A4C6FAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="9785094">
+          <a:off x="10519374" y="66189254"/>
+          <a:ext cx="271360" cy="1110182"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>290945</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>166255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>138546</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="四角形: 角を丸くする 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DBC103E-D0DE-4BEA-86C0-873FFE41A6E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601200" y="65878364"/>
+          <a:ext cx="1842655" cy="845127"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>検索結果のプロシージャ件数</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>554181</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>207818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>665017</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="テキスト ボックス 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87233B3D-71D7-454B-BFE4-9CC2BFD548AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1884217" y="74869963"/>
+          <a:ext cx="3435927" cy="637309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="soft" dir="t">
+              <a:rot lat="0" lon="0" rev="15600000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d extrusionH="57150" prstMaterial="softEdge">
+            <a:bevelT w="25400" h="38100"/>
+          </a:sp3d>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1" cap="none" spc="0">
+              <a:ln/>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>文字サイズ変更</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>195618</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>206703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>415143</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>134683</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="二等辺三角形 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B78C80-EABA-4364-9927-29BACD754C79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13310189">
+          <a:off x="10170891" y="75339903"/>
+          <a:ext cx="219525" cy="870089"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57124</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>27709</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>332509</xdr:colOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>90748</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="四角形: 角を丸くする 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84DE8E91-7C4D-4B54-A435-0A8C3D20B349}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10032397" y="75160909"/>
+          <a:ext cx="2270439" cy="534094"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>表示文字サイズを変更</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -13534,15 +18014,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A313" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Y163" sqref="Y163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13569,7 +18050,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
